--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Calca</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>0.354751</v>
       </c>
       <c r="H2">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.78612150000001</v>
+        <v>41.6173</v>
       </c>
       <c r="N2">
-        <v>169.572243</v>
+        <v>83.2346</v>
       </c>
       <c r="O2">
-        <v>0.5414245061026678</v>
+        <v>0.411761355892064</v>
       </c>
       <c r="P2">
-        <v>0.4499324752013724</v>
+        <v>0.3324886731607734</v>
       </c>
       <c r="Q2">
-        <v>30.07796138824651</v>
+        <v>14.7637787923</v>
       </c>
       <c r="R2">
-        <v>120.311845552986</v>
+        <v>59.0551151692</v>
       </c>
       <c r="S2">
-        <v>0.5414245061026678</v>
+        <v>0.2909929793346464</v>
       </c>
       <c r="T2">
-        <v>0.4499324752013724</v>
+        <v>0.2049195863279868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,13 +608,13 @@
         <v>0.354751</v>
       </c>
       <c r="H3">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.941352</v>
       </c>
       <c r="O3">
-        <v>0.05734707497829552</v>
+        <v>0.08885253351439082</v>
       </c>
       <c r="P3">
-        <v>0.07148451289065891</v>
+        <v>0.1076198405427232</v>
       </c>
       <c r="Q3">
-        <v>3.185823854450668</v>
+        <v>3.185823854450667</v>
       </c>
       <c r="R3">
         <v>19.114943126704</v>
       </c>
       <c r="S3">
-        <v>0.05734707497829552</v>
+        <v>0.0627923506633334</v>
       </c>
       <c r="T3">
-        <v>0.07148451289065891</v>
+        <v>0.06632831427022751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.354751</v>
       </c>
       <c r="H4">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.247984000000001</v>
+        <v>13.45113833333333</v>
       </c>
       <c r="N4">
-        <v>24.743952</v>
+        <v>40.353415</v>
       </c>
       <c r="O4">
-        <v>0.05266971273762895</v>
+        <v>0.1330854946963174</v>
       </c>
       <c r="P4">
-        <v>0.06565406798106663</v>
+        <v>0.1611956255073737</v>
       </c>
       <c r="Q4">
-        <v>2.925980571984001</v>
+        <v>4.771804774888333</v>
       </c>
       <c r="R4">
-        <v>17.555883431904</v>
+        <v>28.63082864933</v>
       </c>
       <c r="S4">
-        <v>0.05266971273762895</v>
+        <v>0.094051916367932</v>
       </c>
       <c r="T4">
-        <v>0.06565406798106663</v>
+        <v>0.09934816901530824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -732,13 +732,13 @@
         <v>0.354751</v>
       </c>
       <c r="H5">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1248205</v>
+        <v>11.258772</v>
       </c>
       <c r="N5">
-        <v>16.249641</v>
+        <v>22.517544</v>
       </c>
       <c r="O5">
-        <v>0.05188321919390227</v>
+        <v>0.1113942332731726</v>
       </c>
       <c r="P5">
-        <v>0.04311578986581963</v>
+        <v>0.0899485109245354</v>
       </c>
       <c r="Q5">
-        <v>2.8822881971955</v>
+        <v>3.994060625772</v>
       </c>
       <c r="R5">
-        <v>11.529152788782</v>
+        <v>15.976242503088</v>
       </c>
       <c r="S5">
-        <v>0.05188321919390227</v>
+        <v>0.07872263717082789</v>
       </c>
       <c r="T5">
-        <v>0.04311578986581963</v>
+        <v>0.05543711150894268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,13 +794,13 @@
         <v>0.354751</v>
       </c>
       <c r="H6">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.145873</v>
+        <v>15.450729</v>
       </c>
       <c r="N6">
-        <v>111.437619</v>
+        <v>46.352187</v>
       </c>
       <c r="O6">
-        <v>0.2372049291437092</v>
+        <v>0.1528694346476305</v>
       </c>
       <c r="P6">
-        <v>0.2956816685335552</v>
+        <v>0.1851583014002596</v>
       </c>
       <c r="Q6">
-        <v>13.177535592623</v>
+        <v>5.481161563479</v>
       </c>
       <c r="R6">
-        <v>79.06521355573801</v>
+        <v>32.886969380874</v>
       </c>
       <c r="S6">
-        <v>0.2372049291437092</v>
+        <v>0.1080332857874543</v>
       </c>
       <c r="T6">
-        <v>0.2956816685335552</v>
+        <v>0.1141168574779897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -856,13 +856,13 @@
         <v>0.354751</v>
       </c>
       <c r="H7">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.312984333333333</v>
+        <v>10.313018</v>
       </c>
       <c r="N7">
-        <v>27.938953</v>
+        <v>30.939054</v>
       </c>
       <c r="O7">
-        <v>0.05947055784379619</v>
+        <v>0.1020369479764247</v>
       </c>
       <c r="P7">
-        <v>0.07413148552752709</v>
+        <v>0.1235890484643348</v>
       </c>
       <c r="Q7">
-        <v>3.303790505234333</v>
+        <v>3.658553448518</v>
       </c>
       <c r="R7">
-        <v>19.822743031406</v>
+        <v>21.951320691108</v>
       </c>
       <c r="S7">
-        <v>0.05947055784379619</v>
+        <v>0.07210981571970879</v>
       </c>
       <c r="T7">
-        <v>0.07413148552752709</v>
+        <v>0.07617046453108735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.441688</v>
+      </c>
+      <c r="I8">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J8">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>41.6173</v>
+      </c>
+      <c r="N8">
+        <v>83.2346</v>
+      </c>
+      <c r="O8">
+        <v>0.411761355892064</v>
+      </c>
+      <c r="P8">
+        <v>0.3324886731607734</v>
+      </c>
+      <c r="Q8">
+        <v>6.127287334133334</v>
+      </c>
+      <c r="R8">
+        <v>36.7637240048</v>
+      </c>
+      <c r="S8">
+        <v>0.1207683765574176</v>
+      </c>
+      <c r="T8">
+        <v>0.1275690868327867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.441688</v>
+      </c>
+      <c r="I9">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J9">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.980450666666668</v>
+      </c>
+      <c r="N9">
+        <v>26.941352</v>
+      </c>
+      <c r="O9">
+        <v>0.08885253351439082</v>
+      </c>
+      <c r="P9">
+        <v>0.1076198405427232</v>
+      </c>
+      <c r="Q9">
+        <v>1.322185764686223</v>
+      </c>
+      <c r="R9">
+        <v>11.899671882176</v>
+      </c>
+      <c r="S9">
+        <v>0.02606018285105741</v>
+      </c>
+      <c r="T9">
+        <v>0.04129152627249571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.441688</v>
+      </c>
+      <c r="I10">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J10">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.45113833333333</v>
+      </c>
+      <c r="N10">
+        <v>40.353415</v>
+      </c>
+      <c r="O10">
+        <v>0.1330854946963174</v>
+      </c>
+      <c r="P10">
+        <v>0.1611956255073737</v>
+      </c>
+      <c r="Q10">
+        <v>1.980402129391111</v>
+      </c>
+      <c r="R10">
+        <v>17.82361916452</v>
+      </c>
+      <c r="S10">
+        <v>0.03903357832838541</v>
+      </c>
+      <c r="T10">
+        <v>0.06184745649206552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.441688</v>
+      </c>
+      <c r="I11">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J11">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.258772</v>
+      </c>
+      <c r="N11">
+        <v>22.517544</v>
+      </c>
+      <c r="O11">
+        <v>0.1113942332731726</v>
+      </c>
+      <c r="P11">
+        <v>0.0899485109245354</v>
+      </c>
+      <c r="Q11">
+        <v>1.657621495712</v>
+      </c>
+      <c r="R11">
+        <v>9.945728974272001</v>
+      </c>
+      <c r="S11">
+        <v>0.03267159610234468</v>
+      </c>
+      <c r="T11">
+        <v>0.03451139941559273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.441688</v>
+      </c>
+      <c r="I12">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J12">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.450729</v>
+      </c>
+      <c r="N12">
+        <v>46.352187</v>
+      </c>
+      <c r="O12">
+        <v>0.1528694346476305</v>
+      </c>
+      <c r="P12">
+        <v>0.1851583014002596</v>
+      </c>
+      <c r="Q12">
+        <v>2.274800530184</v>
+      </c>
+      <c r="R12">
+        <v>20.473204771656</v>
+      </c>
+      <c r="S12">
+        <v>0.04483614886017622</v>
+      </c>
+      <c r="T12">
+        <v>0.07104144392226991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.441688</v>
+      </c>
+      <c r="I13">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J13">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.313018</v>
+      </c>
+      <c r="N13">
+        <v>30.939054</v>
+      </c>
+      <c r="O13">
+        <v>0.1020369479764247</v>
+      </c>
+      <c r="P13">
+        <v>0.1235890484643348</v>
+      </c>
+      <c r="Q13">
+        <v>1.518378764794667</v>
+      </c>
+      <c r="R13">
+        <v>13.665408883152</v>
+      </c>
+      <c r="S13">
+        <v>0.02992713225671596</v>
+      </c>
+      <c r="T13">
+        <v>0.04741858393324742</v>
       </c>
     </row>
   </sheetData>
